--- a/kaddy/Refs.xlsx
+++ b/kaddy/Refs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\kaddy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kadrieh.github.io\kaddy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="2" r:id="rId1"/>
     <sheet name="tag" sheetId="3" r:id="rId2"/>
     <sheet name="refHTML" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>http://ianlunn.github.io/Hover/</t>
   </si>
@@ -143,12 +143,18 @@
   </si>
   <si>
     <t>skills progress bar</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>http://konpa.github.io/devicon/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,22 +567,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -587,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -598,7 +604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -631,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -642,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -653,7 +659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -664,7 +670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -675,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -686,7 +692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -697,7 +703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -708,7 +714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -719,7 +725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -730,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -741,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -752,86 +758,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="nav" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" location="nav"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
@@ -839,27 +851,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -867,13 +879,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -881,7 +893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -893,21 +905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -915,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -926,7 +938,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -937,7 +949,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -948,7 +960,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -959,7 +971,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -968,7 +980,7 @@
         <v>&lt;h5&gt;carousel&lt;br /&gt;&lt;a href="https://www.w3schools.com/bootstrap/bootstrap_carousel.asp"&gt;https://www.w3schools.com/bootstrap/bootstrap_carousel.asp&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -977,7 +989,7 @@
         <v>&lt;h5&gt;add tooltip and alt attribute and popups&lt;br /&gt;&lt;a href="https://www.w3schools.com/bootstrap/bootstrap_tooltip.asp"&gt;https://www.w3schools.com/bootstrap/bootstrap_tooltip.asp&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -986,7 +998,7 @@
         <v>&lt;h5&gt;education = accordion &lt;br /&gt;&lt;a href="https://codepen.io/dliebswager/pen/JfCLg"&gt;https://codepen.io/dliebswager/pen/JfCLg&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>&lt;h5&gt;sweetalert2/&lt;br /&gt;&lt;a href="https://github.com/limonte/sweetalert2/releases"&gt;https://github.com/limonte/sweetalert2/releases&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>&lt;h5&gt;skills progress bar&lt;br /&gt;&lt;a href="https://www.jqueryscript.net/chart-graph/jQuery-Progress-Bar-Plugin-LineProgressbar.html"&gt;https://www.jqueryscript.net/chart-graph/jQuery-Progress-Bar-Plugin-LineProgressbar.html&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>&lt;h5&gt;landing page text &lt;br /&gt;&lt;a href="https://developers.google.com/fonts/docs/getting_started"&gt;https://developers.google.com/fonts/docs/getting_started&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>&lt;h5&gt;animate css&lt;br /&gt;&lt;a href="https://daneden.github.io/animate.css/"&gt;https://daneden.github.io/animate.css/&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>&lt;h5&gt;contact form&lt;br /&gt;&lt;a href="https://bootsnipp.com/snippets/762Z8"&gt;https://bootsnipp.com/snippets/762Z8&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1040,7 +1052,7 @@
         <v>&lt;h5&gt;fontawsome&lt;br /&gt;&lt;a href="http://fontawesome.io/icons/"&gt;http://fontawesome.io/icons/&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>&lt;h5&gt;tabs pills&lt;br /&gt;&lt;a href="https://www.w3schools.com/bootstrap/bootstrap_tabs_pills.asp"&gt;https://www.w3schools.com/bootstrap/bootstrap_tabs_pills.asp&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1058,16 +1070,16 @@
         <v>&lt;h5&gt;tabs pills&lt;br /&gt;&lt;a href="https://www.w3schools.com/bootstrap/bootstrap_tabs_pills.asp"&gt;https://www.w3schools.com/bootstrap/bootstrap_tabs_pills.asp&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>CONCATENATE(tag!$A$2,ref!B17,tag!$A$3,refHTML!$E$2,tag!$A$4,ref!C17,tag!$B$4,ref!C17,tag!$A$5,tag!$B$2)</f>
-        <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>&lt;h5&gt;icons&lt;br /&gt;&lt;a href="http://konpa.github.io/devicon/"&gt;http://konpa.github.io/devicon/&lt;/a&gt;&lt;/h5&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1121,7 +1133,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1166,7 +1178,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1195,9 +1207,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://mdbootstrap.com/javascript/carousel/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C8" r:id="rId2" display="https://www.w3schools.com/jsref/jsref_obj_date.asp" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://stackoverflow.com/questions/32540044/html-display-current-date" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://mdbootstrap.com/javascript/carousel/"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://www.w3schools.com/jsref/jsref_obj_date.asp"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://stackoverflow.com/questions/32540044/html-display-current-date"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/kaddy/Refs.xlsx
+++ b/kaddy/Refs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>http://ianlunn.github.io/Hover/</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>http://konpa.github.io/devicon/</t>
+  </si>
+  <si>
+    <t>https://weatherwidget.io/</t>
+  </si>
+  <si>
+    <t>weather widget</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -772,6 +778,12 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -909,7 +921,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1097,7 @@
       </c>
       <c r="B18" s="13" t="str">
         <f>CONCATENATE(tag!$A$2,ref!B18,tag!$A$3,refHTML!$E$2,tag!$A$4,ref!C18,tag!$B$4,ref!C18,tag!$A$5,tag!$B$2)</f>
-        <v>&lt;h5&gt;&lt;br /&gt;&lt;a href=""&gt;&lt;/a&gt;&lt;/h5&gt;</v>
+        <v>&lt;h5&gt;weather widget&lt;br /&gt;&lt;a href="https://weatherwidget.io/"&gt;https://weatherwidget.io/&lt;/a&gt;&lt;/h5&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
